--- a/STOCK UTN/2023/05 MEI/15 MEI - 20 MEI 2023.xlsx
+++ b/STOCK UTN/2023/05 MEI/15 MEI - 20 MEI 2023.xlsx
@@ -11215,7 +11215,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A82" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:C101"/>
     </sheetView>
   </sheetViews>
@@ -12612,8 +12612,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2290"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView view="pageLayout" topLeftCell="A2269" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C2290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12886,7 +12886,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 15 MEI - 21 MEI 2023</v>
+        <v>TANGGAL : stock_db_150523-200523</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -38083,8 +38083,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F787"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A759" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D775" sqref="D775"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A741" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A758" sqref="A758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/STOCK UTN/2023/05 MEI/15 MEI - 20 MEI 2023.xlsx
+++ b/STOCK UTN/2023/05 MEI/15 MEI - 20 MEI 2023.xlsx
@@ -11215,7 +11215,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A82" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:C101"/>
     </sheetView>
   </sheetViews>
@@ -12612,8 +12612,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2290"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2269" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C2290"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12886,7 +12886,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : stock_db_150523-200523</v>
+        <v>TANGGAL : 15 MEI - 21 MEI 2023</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -38083,8 +38083,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F787"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A741" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A758" sqref="A758"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A759" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D775" sqref="D775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
